--- a/src/excel_template/cdQC/Angle format.xlsx
+++ b/src/excel_template/cdQC/Angle format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -683,7 +683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -803,7 +802,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -885,7 +883,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -988,7 +985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1220,7 +1216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1340,7 +1335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1422,7 +1416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5325,9 +5318,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14771,9 +14762,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14861,9 +14850,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
